--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
@@ -537,10 +537,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="H2">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>4.682849442180001</v>
+        <v>3.905812020189445</v>
       </c>
       <c r="R2">
-        <v>42.14564497962001</v>
+        <v>35.152308181705</v>
       </c>
       <c r="S2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="T2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="H3">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>0.61917473886</v>
+        <v>0.5956738766166667</v>
       </c>
       <c r="R3">
-        <v>5.572572649740001</v>
+        <v>5.36106488955</v>
       </c>
       <c r="S3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="T3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="H4">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>1.429911648594</v>
+        <v>2.816655169801111</v>
       </c>
       <c r="R4">
-        <v>12.869204837346</v>
+        <v>25.34989652821</v>
       </c>
       <c r="S4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="T4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06886200000000001</v>
+        <v>0.06624833333333334</v>
       </c>
       <c r="H5">
-        <v>0.206586</v>
+        <v>0.198745</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>0.741536269372</v>
+        <v>0.7133086350938889</v>
       </c>
       <c r="R5">
-        <v>6.673826424348</v>
+        <v>6.419777715845</v>
       </c>
       <c r="S5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="T5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
     </row>
   </sheetData>
